--- a/architecture.xlsx
+++ b/architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HamsterStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB28D45A-64DE-49EE-A65B-DCBE0A354277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA14B7-CD26-432E-A9C8-D86354300FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{F9177662-362C-4FC5-A9DF-51409B8507CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>Terminals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandyUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdParty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A261C1F-7629-4BFB-956E-B3BE0C00EF59}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -499,17 +519,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/architecture.xlsx
+++ b/architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HamsterStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA14B7-CD26-432E-A9C8-D86354300FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682162E8-D536-4BD4-8E24-C0F6EE041A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{F9177662-362C-4FC5-A9DF-51409B8507CB}"/>
+    <workbookView xWindow="5470" yWindow="5580" windowWidth="30370" windowHeight="15560" xr2:uid="{F9177662-362C-4FC5-A9DF-51409B8507CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>ThirdParty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,11 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +489,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,27 +519,29 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/architecture.xlsx
+++ b/architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HamsterStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682162E8-D536-4BD4-8E24-C0F6EE041A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E96EAD-6E65-4408-BCED-1A1A953DB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5470" yWindow="5580" windowWidth="30370" windowHeight="15560" xr2:uid="{F9177662-362C-4FC5-A9DF-51409B8507CB}"/>
+    <workbookView xWindow="4960" yWindow="8840" windowWidth="29840" windowHeight="14150" xr2:uid="{F9177662-362C-4FC5-A9DF-51409B8507CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminals</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>Barefeet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPF：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rte：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BraveShine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toolkits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,11 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ThirdParty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web</t>
+    <t>Controls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,18 +133,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -133,18 +171,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -153,23 +319,143 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,66 +772,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A261C1F-7629-4BFB-956E-B3BE0C00EF59}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20"/>
+      <c r="C11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
